--- a/thresholds/AL/literature/literature-thresholds.xlsx
+++ b/thresholds/AL/literature/literature-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,55 +623,55 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" t="n">
         <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
         <v>105</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -693,30 +693,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E8" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" t="n">
         <v>105</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -728,30 +728,30 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>EV 32,42,78</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" t="n">
         <v>140</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -763,93 +763,93 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>EV 32,42,78</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F10" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G10" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="G11" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D12" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E12" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F12" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G12" t="n">
         <v>92</v>
@@ -868,30 +868,30 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>EV 32,42,78</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D13" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E13" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -903,138 +903,278 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D14" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G14" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>EV 32,42,78</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D15" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G15" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F16" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="G16" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>EV 32,42,78</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>200</v>
       </c>
       <c r="C17" t="n">
+        <v>170</v>
+      </c>
+      <c r="D17" t="n">
+        <v>150</v>
+      </c>
+      <c r="E17" t="n">
+        <v>130</v>
+      </c>
+      <c r="F17" t="n">
+        <v>112</v>
+      </c>
+      <c r="G17" t="n">
+        <v>94</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>BY 32,42,88</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>170</v>
+      </c>
+      <c r="D18" t="n">
+        <v>150</v>
+      </c>
+      <c r="E18" t="n">
+        <v>130</v>
+      </c>
+      <c r="F18" t="n">
+        <v>112</v>
+      </c>
+      <c r="G18" t="n">
+        <v>94</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CY 32,42,98</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>168</v>
+      </c>
+      <c r="D19" t="n">
+        <v>148</v>
+      </c>
+      <c r="E19" t="n">
+        <v>128</v>
+      </c>
+      <c r="F19" t="n">
+        <v>111</v>
+      </c>
+      <c r="G19" t="n">
+        <v>94</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>EV 32,42,78</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" t="n">
         <v>171</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>151</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E20" t="n">
         <v>131</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F20" t="n">
         <v>113</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G20" t="n">
         <v>95</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>71</v>
+      </c>
+      <c r="E21" t="n">
+        <v>63</v>
+      </c>
+      <c r="F21" t="n">
+        <v>54</v>
+      </c>
+      <c r="G21" t="n">
+        <v>46</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>March 2025</t>
         </is>
